--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R203_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R203_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="C12" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -679,10 +691,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -726,28 +738,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="2">
+      <c r="C21" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -772,28 +784,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -939,10 +951,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -986,28 +998,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="2">
+      <c r="C30" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1032,28 +1044,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1141,10 +1153,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="2" t="s">
+      <c r="J35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1188,28 +1200,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="2">
+      <c r="A37" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s" s="2">
+      <c r="C37" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1234,28 +1246,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="2">
+      <c r="C39" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="2">
+      <c r="D39" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="2">
+      <c r="I39" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1430,10 +1442,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="J45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1477,28 +1489,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="A47" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="2">
+      <c r="C47" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1523,28 +1535,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="2">
+      <c r="I49" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1661,10 +1673,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="2" t="s">
+      <c r="J53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1708,28 +1720,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="2">
+      <c r="C55" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1754,28 +1766,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="2">
+      <c r="I57" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1892,10 +1904,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="2" t="s">
+      <c r="J61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1939,28 +1951,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="2">
+      <c r="C63" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1985,28 +1997,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2123,10 +2135,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2170,28 +2182,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2216,28 +2228,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2557,10 +2569,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2604,28 +2616,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2650,28 +2662,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2904,10 +2916,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K96" s="2" t="s">
+      <c r="J96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2951,28 +2963,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D98" t="s" s="2">
+      <c r="C98" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2997,28 +3009,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3106,10 +3118,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="2" t="s">
+      <c r="J103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3153,28 +3165,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="2">
+      <c r="C105" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3199,28 +3211,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3308,10 +3320,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="2" t="s">
+      <c r="J110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3355,28 +3367,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="2">
+      <c r="A112" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="2">
+      <c r="C112" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3401,28 +3413,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="2">
+      <c r="I114" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3539,10 +3551,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K118" s="2" t="s">
+      <c r="J118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3586,28 +3598,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="2">
+      <c r="A120" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s" s="2">
+      <c r="C120" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3632,28 +3644,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="2">
+      <c r="I122" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3828,10 +3840,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="2" t="s">
+      <c r="J128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3875,28 +3887,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="2">
+      <c r="C130" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3921,28 +3933,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4059,10 +4071,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="2" t="s">
+      <c r="J136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4106,28 +4118,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="2">
+      <c r="A138" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="2">
+      <c r="C138" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4152,28 +4164,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="2">
+      <c r="I140" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4261,10 +4273,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="2" t="s">
+      <c r="J143" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4308,28 +4320,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="2">
+      <c r="A145" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="2">
+      <c r="C145" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4354,28 +4366,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="2">
+      <c r="I147" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4463,10 +4475,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4510,28 +4522,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4556,28 +4568,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4839,10 +4851,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4886,28 +4898,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4932,28 +4944,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5099,10 +5111,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="2" t="s">
+      <c r="J172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5146,28 +5158,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="2">
+      <c r="C174" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5192,28 +5204,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5504,10 +5516,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="2" t="s">
+      <c r="J186" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5551,28 +5563,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="2">
+      <c r="A188" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="2">
+      <c r="C188" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5597,28 +5609,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="C190" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="2">
+      <c r="D190" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="2">
+      <c r="I190" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5706,10 +5718,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5753,28 +5765,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5799,28 +5811,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6140,10 +6152,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6187,28 +6199,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6233,28 +6245,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6371,10 +6383,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
